--- a/アカウント検索テストケース.xlsx
+++ b/アカウント検索テストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74217E1F-1DBB-42FE-B928-1052478F9E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{553ED6DE-9279-4F9C-8AA0-F50E615D3194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>アカウントデータが表示されない（空欄）</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>杉村</t>
+  </si>
+  <si>
+    <t>ー</t>
   </si>
   <si>
     <t>Windows 11／
@@ -575,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -591,7 +600,7 @@
     <col min="9" max="9" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="91.5" customHeight="1">
+    <row r="1" spans="1:9" ht="96" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -633,12 +642,20 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="158.25" customHeight="1">
@@ -646,20 +663,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="158.25" customHeight="1">
@@ -667,20 +692,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="158.25" customHeight="1">
@@ -688,20 +721,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="158.25" customHeight="1">
@@ -709,20 +750,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="158.25" customHeight="1">
@@ -730,20 +779,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="158.25" customHeight="1">
@@ -751,20 +808,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="158.25" customHeight="1">
@@ -772,20 +837,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="158.25" customHeight="1">
@@ -793,19 +866,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75"/>
   </sheetData>

--- a/アカウント検索テストケース.xlsx
+++ b/アカウント検索テストケース.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{553ED6DE-9279-4F9C-8AA0-F50E615D3194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E3C984A-113C-4923-9484-911BC3E20269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
+    <sheet name="結合テスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -101,6 +102,42 @@
     <t>名前（姓）に該当の文字を含むアカウントのみ表示される</t>
   </si>
   <si>
+    <t>名前（名）の部分一致検索</t>
+  </si>
+  <si>
+    <t>１．名前（名）に登録されているアカウントの一文字を入力し「検索」ボタンを押す</t>
+  </si>
+  <si>
+    <t>名前（名）に該当の文字を含むアカウントのみ表示される</t>
+  </si>
+  <si>
+    <t>カナ（姓）の部分一致検索</t>
+  </si>
+  <si>
+    <t>１．カナ（姓）に登録されているアカウントの一文字を入力し「検索」ボタンを押す</t>
+  </si>
+  <si>
+    <t>カナ（姓）に該当の文字を含むアカウントのみ表示される</t>
+  </si>
+  <si>
+    <t>カナ（名）の部分一致検索</t>
+  </si>
+  <si>
+    <t>１．カナ（名）に登録されているアカウントの一文字を入力し「検索」ボタンを押す</t>
+  </si>
+  <si>
+    <t>カナ（名）に該当の文字を含むアカウントのみ表示される</t>
+  </si>
+  <si>
+    <t>メールアドレスの部分一致検索</t>
+  </si>
+  <si>
+    <t>１．メールアドレスに登録されているアカウントの一文字を入力し「検索」ボタンを押す</t>
+  </si>
+  <si>
+    <t>メールアドレスに該当の文字を含むアカウントのみ表示される</t>
+  </si>
+  <si>
     <t>複数条件によるAND検索</t>
   </si>
   <si>
@@ -154,6 +191,70 @@
   </si>
   <si>
     <t>該当するアカウントはありませんと表示される</t>
+  </si>
+  <si>
+    <t>検索フォーム表示</t>
+  </si>
+  <si>
+    <t>１．アカウント一覧画面にアクセス</t>
+  </si>
+  <si>
+    <t>検索フォームの各項目が画面に表示されている</t>
+  </si>
+  <si>
+    <t>検索ボタンの活性状態</t>
+  </si>
+  <si>
+    <t>１．画面ロード直後に検索ボタンを確認</t>
+  </si>
+  <si>
+    <t>検索ボタンが押下可能な状態で表示されている</t>
+  </si>
+  <si>
+    <t>検索結果の並び順</t>
+  </si>
+  <si>
+    <t>１．検索条件を入力し「検索」ボタンを押す</t>
+  </si>
+  <si>
+    <t>検索結果がID昇順で表示される</t>
+  </si>
+  <si>
+    <t>検索結果の件数表示</t>
+  </si>
+  <si>
+    <t>１．検索後、画面下部に件数が表示されるか確認</t>
+  </si>
+  <si>
+    <t>「○件表示中」などの件数が表示される</t>
+  </si>
+  <si>
+    <t>検索条件の保持</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１．検索条件を入力して検索２．画面を再読み込みせずに再検索
+</t>
+  </si>
+  <si>
+    <t>入力した検索条件が保持されたまま再検索できる</t>
+  </si>
+  <si>
+    <t>検索後の再検索</t>
+  </si>
+  <si>
+    <t>１．検索後、別の条件に変更して再度検索</t>
+  </si>
+  <si>
+    <t>新しい条件に一致する結果が表示される</t>
+  </si>
+  <si>
+    <t>検索結果の表示形式</t>
+  </si>
+  <si>
+    <t>１．検索後、表示されたアカウント情報のレイアウトを確認</t>
+  </si>
+  <si>
+    <t>表形式で整列されて表示される（列：名前、カナ、性別、権限など）</t>
   </si>
 </sst>
 </file>
@@ -203,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -226,11 +327,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -247,6 +453,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -845,7 +1075,7 @@
       <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -874,7 +1104,7 @@
       <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -890,7 +1120,326 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75"/>
+    <row r="11" spans="1:9" ht="158.25" customHeight="1">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="158.25" customHeight="1">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="158.25" customHeight="1">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="158.25" customHeight="1">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93484BED-0C94-49E2-AA12-31EB53DC4FAE}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="49.5" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="130.5" customHeight="1">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="130.5" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="130.5" customHeight="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="130.5" customHeight="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="130.5" customHeight="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="130.5" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="130.5" customHeight="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="130.5" customHeight="1"/>
+    <row r="10" spans="1:9" ht="130.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/アカウント検索テストケース.xlsx
+++ b/アカウント検索テストケース.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E3C984A-113C-4923-9484-911BC3E20269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E7E671-FA5C-4D62-8C07-76A49CF368B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -217,16 +217,7 @@
     <t>１．検索条件を入力し「検索」ボタンを押す</t>
   </si>
   <si>
-    <t>検索結果がID昇順で表示される</t>
-  </si>
-  <si>
-    <t>検索結果の件数表示</t>
-  </si>
-  <si>
-    <t>１．検索後、画面下部に件数が表示されるか確認</t>
-  </si>
-  <si>
-    <t>「○件表示中」などの件数が表示される</t>
+    <t>検索結果がID降順で表示される</t>
   </si>
   <si>
     <t>検索条件の保持</t>
@@ -304,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -432,11 +423,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -450,7 +456,6 @@
     <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,6 +482,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -831,36 +842,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="96" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -884,12 +895,12 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -913,12 +924,12 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -942,12 +953,12 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -971,12 +982,12 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1000,12 +1011,12 @@
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1029,12 +1040,12 @@
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A8" s="6">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1058,12 +1069,12 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1087,12 +1098,12 @@
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1116,12 +1127,12 @@
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A11" s="6">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1145,12 +1156,12 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A12" s="6">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1174,12 +1185,12 @@
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A13" s="6">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1191,7 +1202,7 @@
       <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1203,36 +1214,36 @@
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45923</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="E14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="14">
+        <v>45923</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1244,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93484BED-0C94-49E2-AA12-31EB53DC4FAE}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1262,37 +1273,37 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="49.5" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="78.75" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="130.5" customHeight="1">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1304,16 +1315,24 @@
       <c r="D2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="11" t="s">
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="130.5" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1325,16 +1344,24 @@
       <c r="D3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="11" t="s">
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="130.5" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1346,17 +1373,25 @@
       <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="11" t="s">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="130.5" customHeight="1">
-      <c r="A5" s="10">
-        <v>4</v>
+      <c r="A5" s="9">
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>61</v>
@@ -1367,17 +1402,25 @@
       <c r="D5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="11" t="s">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="130.5" customHeight="1">
-      <c r="A6" s="10">
-        <v>5</v>
+      <c r="A6" s="9">
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>64</v>
@@ -1388,58 +1431,53 @@
       <c r="D6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="11" t="s">
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45923</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="130.5" customHeight="1">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="16">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="130.5" customHeight="1">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14">
+        <v>45923</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="130.5" customHeight="1"/>
     <row r="9" spans="1:9" ht="130.5" customHeight="1"/>
-    <row r="10" spans="1:9" ht="130.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
